--- a/nondaily_study_deidentified_7_16_2021.xlsx
+++ b/nondaily_study_deidentified_7_16_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abner\Documents\Python Scripts\NMFBeginning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B76538-30FA-4D18-832A-A4FB21DB298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89DB5D4-3E8E-4FBE-85C1-CF88FCF3BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="7635" windowWidth="10125" windowHeight="3300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="6645" windowWidth="15285" windowHeight="3300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nondaily_study_deidentified_7_1" sheetId="1" r:id="rId1"/>
@@ -658,10 +658,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1363,7 +1364,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1429,7 @@
                   <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -106080,7 +106081,7 @@
   <dimension ref="A1:AD873"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -106143,8 +106144,9 @@
         <v>0.06</v>
       </c>
       <c r="J2" s="1">
-        <v>0.14000000000000001</v>
-      </c>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -106169,7 +106171,7 @@
         <v>0.128</v>
       </c>
       <c r="J3" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
